--- a/Assignment 4/Appendices/sus sample, NASA TXL, PR.xlsx
+++ b/Assignment 4/Appendices/sus sample, NASA TXL, PR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hot_s\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hot_s\Documents\Game Dev\Y4\Emerging-Technologies\Assignment 4\Appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9235909-8654-4FFC-AE1D-0FB6312F1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BA4B3F-B115-4D44-AE04-8D28E499D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Response visualization sample" sheetId="1" r:id="rId1"/>
@@ -4965,7 +4965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -6312,8 +6312,8 @@
   </sheetPr>
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6758,11 +6758,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>62</v>
@@ -6911,6 +6906,13 @@
         <f>AVERAGE(K4:K8)</f>
         <v>6.4</v>
       </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <f>SUM(G17:G19)</f>
+        <v>4.8000000000000007</v>
+      </c>
       <c r="J20" t="s">
         <v>104</v>
       </c>
@@ -6928,11 +6930,11 @@
         <v>5.2</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G21">
-        <f>SUM(G17:G19)</f>
-        <v>4.8000000000000007</v>
+        <f>(21-G20)</f>
+        <v>16.2</v>
       </c>
       <c r="H21" t="s">
         <v>104</v>
@@ -7019,7 +7021,7 @@
       </c>
       <c r="C28">
         <f>SUM(C25,E22,G21,I21,K20)</f>
-        <v>92.4</v>
+        <v>103.8</v>
       </c>
     </row>
   </sheetData>
